--- a/public/reportOne.xlsx
+++ b/public/reportOne.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Macal\Documents\PinyaTaMap\pinyatama\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A739B16-DD5A-4FC1-9A4F-3CE0146520BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45F1CEF4-EF55-4B59-B8AA-546E21D7F694}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="10455" windowHeight="11625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Soil Test Result" sheetId="1" r:id="rId1"/>
@@ -596,7 +596,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -637,27 +637,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -676,134 +655,137 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1226,8 +1208,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="136" zoomScaleNormal="100" zoomScalePageLayoutView="107" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19:C19"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="136" zoomScaleNormal="100" zoomScalePageLayoutView="107" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27:J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1246,149 +1228,149 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="13.9" x14ac:dyDescent="0.25">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
     </row>
     <row r="2" spans="1:10" ht="13.9" x14ac:dyDescent="0.25">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="53"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
     </row>
     <row r="3" spans="1:10" ht="13.9" x14ac:dyDescent="0.25">
-      <c r="A3" s="53" t="s">
+      <c r="A3" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="53"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53"/>
-      <c r="J3" s="53"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
     </row>
     <row r="4" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="55" t="s">
+      <c r="A4" s="44" t="s">
         <v>56</v>
       </c>
-      <c r="B4" s="55"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="55"/>
-      <c r="J4" s="55"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="44"/>
+      <c r="J4" s="44"/>
     </row>
     <row r="5" spans="1:10" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="55"/>
-      <c r="B5" s="55"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="55"/>
-      <c r="I5" s="55"/>
-      <c r="J5" s="55"/>
+      <c r="A5" s="44"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="44"/>
+      <c r="I5" s="44"/>
+      <c r="J5" s="44"/>
     </row>
     <row r="6" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="53"/>
-      <c r="B6" s="53"/>
-      <c r="C6" s="53"/>
-      <c r="D6" s="53"/>
-      <c r="E6" s="53"/>
-      <c r="F6" s="53"/>
-      <c r="G6" s="53"/>
-      <c r="H6" s="53"/>
-      <c r="I6" s="53"/>
-      <c r="J6" s="53"/>
+      <c r="A6" s="37"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="37"/>
+      <c r="J6" s="37"/>
     </row>
     <row r="7" spans="1:10" ht="13.9" x14ac:dyDescent="0.25">
-      <c r="A7" s="54" t="s">
+      <c r="A7" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="54"/>
-      <c r="C7" s="57" t="s">
+      <c r="B7" s="42"/>
+      <c r="C7" s="45" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="54" t="s">
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="54"/>
-      <c r="H7" s="57"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="57"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="45"/>
+      <c r="I7" s="45"/>
+      <c r="J7" s="45"/>
     </row>
     <row r="8" spans="1:10" ht="13.9" x14ac:dyDescent="0.25">
-      <c r="A8" s="54" t="s">
+      <c r="A8" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="54"/>
-      <c r="C8" s="56"/>
-      <c r="D8" s="56"/>
-      <c r="E8" s="56"/>
-      <c r="F8" s="54" t="s">
+      <c r="B8" s="42"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="54"/>
-      <c r="H8" s="56"/>
-      <c r="I8" s="56"/>
-      <c r="J8" s="56"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="43"/>
+      <c r="I8" s="43"/>
+      <c r="J8" s="43"/>
     </row>
     <row r="9" spans="1:10" ht="13.9" x14ac:dyDescent="0.25">
-      <c r="A9" s="54" t="s">
+      <c r="A9" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="54"/>
-      <c r="C9" s="58"/>
-      <c r="D9" s="58"/>
-      <c r="E9" s="58"/>
-      <c r="F9" s="54" t="s">
+      <c r="B9" s="42"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="G9" s="54"/>
-      <c r="H9" s="58"/>
-      <c r="I9" s="58"/>
-      <c r="J9" s="58"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="40"/>
+      <c r="J9" s="40"/>
     </row>
     <row r="10" spans="1:10" ht="13.9" x14ac:dyDescent="0.25">
-      <c r="A10" s="54" t="s">
+      <c r="A10" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="54"/>
-      <c r="C10" s="56" t="s">
+      <c r="B10" s="42"/>
+      <c r="C10" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="D10" s="56"/>
-      <c r="E10" s="56"/>
-      <c r="F10" s="54" t="s">
+      <c r="D10" s="43"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="G10" s="54"/>
+      <c r="G10" s="42"/>
       <c r="H10" s="13"/>
       <c r="I10" s="14" t="s">
         <v>27</v>
@@ -1408,60 +1390,60 @@
       <c r="J11" s="6"/>
     </row>
     <row r="12" spans="1:10" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="61" t="s">
+      <c r="A12" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="61" t="s">
+      <c r="B12" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="61" t="s">
+      <c r="C12" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="61" t="s">
+      <c r="D12" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="61" t="s">
+      <c r="E12" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="61" t="s">
+      <c r="F12" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="G12" s="61" t="s">
+      <c r="G12" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="H12" s="61" t="s">
+      <c r="H12" s="27" t="s">
         <v>18</v>
       </c>
       <c r="I12" s="11"/>
       <c r="J12" s="12"/>
     </row>
     <row r="13" spans="1:10" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="61"/>
-      <c r="B13" s="61"/>
-      <c r="C13" s="61"/>
-      <c r="D13" s="61"/>
-      <c r="E13" s="61"/>
-      <c r="F13" s="62"/>
-      <c r="G13" s="62"/>
-      <c r="H13" s="62"/>
+      <c r="A13" s="27"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28"/>
       <c r="I13" s="12"/>
       <c r="J13" s="12"/>
     </row>
     <row r="14" spans="1:10" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="29"/>
+      <c r="A14" s="22"/>
       <c r="B14" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="30"/>
+      <c r="D14" s="23"/>
       <c r="E14" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F14" s="30"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="30"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
       <c r="I14" s="12"/>
       <c r="J14" s="12"/>
     </row>
@@ -1469,19 +1451,19 @@
       <c r="A15" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="60" t="s">
+      <c r="B15" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="60"/>
-      <c r="D15" s="53" t="s">
+      <c r="C15" s="39"/>
+      <c r="D15" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="E15" s="53"/>
-      <c r="F15" s="53" t="s">
+      <c r="E15" s="37"/>
+      <c r="F15" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="G15" s="53"/>
-      <c r="H15" s="53"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="37"/>
       <c r="I15" s="3" t="s">
         <v>25</v>
       </c>
@@ -1499,76 +1481,76 @@
       </c>
     </row>
     <row r="17" spans="1:12" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="59" t="s">
+      <c r="B17" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="59"/>
-      <c r="D17" s="59"/>
-      <c r="E17" s="59"/>
-      <c r="F17" s="59"/>
-      <c r="G17" s="59"/>
-      <c r="H17" s="59"/>
-      <c r="I17" s="59"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="41"/>
+      <c r="I17" s="41"/>
     </row>
     <row r="18" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="43" t="s">
+      <c r="B18" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="C18" s="44"/>
-      <c r="D18" s="40" t="s">
+      <c r="C18" s="50"/>
+      <c r="D18" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="E18" s="41"/>
-      <c r="F18" s="41"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="40" t="s">
+      <c r="E18" s="47"/>
+      <c r="F18" s="47"/>
+      <c r="G18" s="48"/>
+      <c r="H18" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="I18" s="41"/>
-      <c r="J18" s="42"/>
+      <c r="I18" s="47"/>
+      <c r="J18" s="48"/>
     </row>
     <row r="19" spans="1:12" ht="37.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="25" t="s">
+      <c r="A19" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="B19" s="72"/>
-      <c r="C19" s="73"/>
-      <c r="D19" s="72"/>
-      <c r="E19" s="71"/>
-      <c r="F19" s="71"/>
-      <c r="G19" s="73"/>
-      <c r="H19" s="72"/>
-      <c r="I19" s="71"/>
-      <c r="J19" s="73"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="26"/>
+      <c r="J19" s="25"/>
     </row>
     <row r="20" spans="1:12" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="26" t="s">
+      <c r="A20" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="B20" s="72"/>
-      <c r="C20" s="73"/>
-      <c r="D20" s="72"/>
-      <c r="E20" s="71"/>
-      <c r="F20" s="71"/>
-      <c r="G20" s="73"/>
-      <c r="H20" s="72"/>
-      <c r="I20" s="71"/>
-      <c r="J20" s="73"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="24"/>
+      <c r="I20" s="26"/>
+      <c r="J20" s="25"/>
     </row>
     <row r="21" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="10"/>
       <c r="B21" s="10"/>
       <c r="C21" s="10"/>
       <c r="D21" s="10"/>
-      <c r="E21" s="48" t="s">
+      <c r="E21" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="F21" s="48"/>
-      <c r="G21" s="48"/>
-      <c r="H21" s="48"/>
+      <c r="F21" s="51"/>
+      <c r="G21" s="51"/>
+      <c r="H21" s="51"/>
       <c r="I21" s="3"/>
     </row>
     <row r="22" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1576,10 +1558,10 @@
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="27"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="20"/>
       <c r="I22" s="3"/>
     </row>
     <row r="23" spans="1:12" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -1588,13 +1570,13 @@
       <c r="C23" s="10"/>
       <c r="D23" s="10"/>
       <c r="E23" s="5"/>
-      <c r="F23" s="49" t="s">
+      <c r="F23" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="G23" s="49"/>
-      <c r="H23" s="49"/>
-      <c r="I23" s="49"/>
-      <c r="J23" s="49"/>
+      <c r="G23" s="38"/>
+      <c r="H23" s="38"/>
+      <c r="I23" s="38"/>
+      <c r="J23" s="38"/>
     </row>
     <row r="24" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="10"/>
@@ -1602,169 +1584,169 @@
       <c r="C24" s="10"/>
       <c r="D24" s="10"/>
       <c r="E24" s="5"/>
-      <c r="F24" s="50" t="s">
+      <c r="F24" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="G24" s="50"/>
-      <c r="H24" s="50"/>
-      <c r="I24" s="50"/>
-      <c r="J24" s="50"/>
+      <c r="G24" s="36"/>
+      <c r="H24" s="36"/>
+      <c r="I24" s="36"/>
+      <c r="J24" s="36"/>
     </row>
     <row r="25" spans="1:12" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="63" t="s">
+      <c r="A25" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="B25" s="64"/>
-      <c r="C25" s="64"/>
-      <c r="D25" s="64"/>
-      <c r="E25" s="64"/>
-      <c r="F25" s="64"/>
-      <c r="G25" s="64"/>
-      <c r="H25" s="64"/>
-      <c r="I25" s="64"/>
-      <c r="J25" s="64"/>
+      <c r="B25" s="30"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="30"/>
+      <c r="H25" s="30"/>
+      <c r="I25" s="30"/>
+      <c r="J25" s="30"/>
     </row>
     <row r="26" spans="1:12" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="69" t="s">
+      <c r="A26" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="B26" s="69"/>
+      <c r="B26" s="32"/>
       <c r="C26" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="D26" s="51" t="s">
+      <c r="D26" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="E26" s="52"/>
-      <c r="F26" s="51" t="s">
+      <c r="E26" s="35"/>
+      <c r="F26" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="G26" s="52"/>
-      <c r="H26" s="51" t="s">
+      <c r="G26" s="35"/>
+      <c r="H26" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="I26" s="52"/>
+      <c r="I26" s="35"/>
       <c r="J26" s="16" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="70" t="s">
+      <c r="A27" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="B27" s="70"/>
-      <c r="C27" s="20"/>
-      <c r="D27" s="45"/>
-      <c r="E27" s="45"/>
-      <c r="F27" s="46"/>
-      <c r="G27" s="46"/>
-      <c r="H27" s="47"/>
-      <c r="I27" s="47"/>
-      <c r="J27" s="21"/>
+      <c r="B27" s="33"/>
+      <c r="C27" s="55"/>
+      <c r="D27" s="57"/>
+      <c r="E27" s="57"/>
+      <c r="F27" s="57"/>
+      <c r="G27" s="57"/>
+      <c r="H27" s="62"/>
+      <c r="I27" s="62"/>
+      <c r="J27" s="63"/>
       <c r="K27" s="17"/>
       <c r="L27" s="17"/>
     </row>
     <row r="28" spans="1:12" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="70" t="s">
+      <c r="A28" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="B28" s="70"/>
-      <c r="C28" s="22"/>
-      <c r="D28" s="45"/>
-      <c r="E28" s="45"/>
-      <c r="F28" s="46"/>
-      <c r="G28" s="46"/>
-      <c r="H28" s="47"/>
-      <c r="I28" s="47"/>
-      <c r="J28" s="21"/>
+      <c r="B28" s="33"/>
+      <c r="C28" s="55"/>
+      <c r="D28" s="57"/>
+      <c r="E28" s="57"/>
+      <c r="F28" s="57"/>
+      <c r="G28" s="57"/>
+      <c r="H28" s="62"/>
+      <c r="I28" s="62"/>
+      <c r="J28" s="63"/>
       <c r="K28" s="17"/>
       <c r="L28" s="17"/>
     </row>
     <row r="29" spans="1:12" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="70" t="s">
+      <c r="A29" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="B29" s="70"/>
-      <c r="C29" s="20"/>
-      <c r="D29" s="45"/>
-      <c r="E29" s="45"/>
-      <c r="F29" s="46"/>
-      <c r="G29" s="46"/>
-      <c r="H29" s="47"/>
-      <c r="I29" s="47"/>
-      <c r="J29" s="21"/>
+      <c r="B29" s="33"/>
+      <c r="C29" s="55"/>
+      <c r="D29" s="57"/>
+      <c r="E29" s="57"/>
+      <c r="F29" s="57"/>
+      <c r="G29" s="57"/>
+      <c r="H29" s="62"/>
+      <c r="I29" s="62"/>
+      <c r="J29" s="63"/>
       <c r="K29" s="17"/>
       <c r="L29" s="17"/>
     </row>
     <row r="30" spans="1:12" ht="16.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="65" t="s">
+      <c r="A30" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="B30" s="65"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="66"/>
-      <c r="E30" s="66"/>
-      <c r="F30" s="67"/>
-      <c r="G30" s="67"/>
-      <c r="H30" s="68"/>
-      <c r="I30" s="68"/>
-      <c r="J30" s="23"/>
+      <c r="B30" s="31"/>
+      <c r="C30" s="56"/>
+      <c r="D30" s="58"/>
+      <c r="E30" s="58"/>
+      <c r="F30" s="58"/>
+      <c r="G30" s="58"/>
+      <c r="H30" s="64"/>
+      <c r="I30" s="64"/>
+      <c r="J30" s="65"/>
       <c r="K30" s="17"/>
       <c r="L30" s="17"/>
     </row>
     <row r="31" spans="1:12" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="39" t="s">
+      <c r="A31" s="54" t="s">
         <v>45</v>
       </c>
-      <c r="B31" s="39"/>
-      <c r="C31" s="24"/>
-      <c r="D31" s="33"/>
-      <c r="E31" s="34"/>
-      <c r="F31" s="35"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="37"/>
-      <c r="I31" s="38"/>
-      <c r="J31" s="19"/>
+      <c r="B31" s="54"/>
+      <c r="C31" s="59"/>
+      <c r="D31" s="60"/>
+      <c r="E31" s="61"/>
+      <c r="F31" s="60"/>
+      <c r="G31" s="61"/>
+      <c r="H31" s="66"/>
+      <c r="I31" s="67"/>
+      <c r="J31" s="59"/>
       <c r="K31" s="17"/>
       <c r="L31" s="17"/>
     </row>
     <row r="32" spans="1:12" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="31" t="s">
+      <c r="A32" s="52" t="s">
         <v>57</v>
       </c>
-      <c r="B32" s="31"/>
-      <c r="C32" s="31"/>
-      <c r="D32" s="31"/>
-      <c r="E32" s="31"/>
-      <c r="F32" s="31"/>
-      <c r="G32" s="31"/>
-      <c r="H32" s="31"/>
-      <c r="I32" s="31"/>
-      <c r="J32" s="31"/>
+      <c r="B32" s="52"/>
+      <c r="C32" s="52"/>
+      <c r="D32" s="52"/>
+      <c r="E32" s="52"/>
+      <c r="F32" s="52"/>
+      <c r="G32" s="52"/>
+      <c r="H32" s="52"/>
+      <c r="I32" s="52"/>
+      <c r="J32" s="52"/>
       <c r="K32" s="17"/>
       <c r="L32" s="17"/>
     </row>
     <row r="33" spans="1:12" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="32"/>
-      <c r="B33" s="32"/>
-      <c r="C33" s="32"/>
-      <c r="D33" s="32"/>
-      <c r="E33" s="32"/>
-      <c r="F33" s="32"/>
-      <c r="G33" s="32"/>
-      <c r="H33" s="32"/>
-      <c r="I33" s="32"/>
-      <c r="J33" s="32"/>
+      <c r="A33" s="53"/>
+      <c r="B33" s="53"/>
+      <c r="C33" s="53"/>
+      <c r="D33" s="53"/>
+      <c r="E33" s="53"/>
+      <c r="F33" s="53"/>
+      <c r="G33" s="53"/>
+      <c r="H33" s="53"/>
+      <c r="I33" s="53"/>
+      <c r="J33" s="53"/>
       <c r="K33" s="17"/>
       <c r="L33" s="17"/>
     </row>
     <row r="34" spans="1:12" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="60" t="s">
+      <c r="A34" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="60"/>
-      <c r="C34" s="60"/>
-      <c r="D34" s="60"/>
+      <c r="B34" s="39"/>
+      <c r="C34" s="39"/>
+      <c r="D34" s="39"/>
       <c r="E34" s="7"/>
       <c r="F34" s="7"/>
     </row>
@@ -1774,69 +1756,72 @@
       <c r="C35" s="5"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="49" t="s">
+      <c r="A36" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="B36" s="49"/>
-      <c r="C36" s="49"/>
-      <c r="D36" s="49"/>
+      <c r="B36" s="38"/>
+      <c r="C36" s="38"/>
+      <c r="D36" s="38"/>
       <c r="E36" s="9"/>
       <c r="F36" s="9"/>
       <c r="H36" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I36" s="53"/>
-      <c r="J36" s="53"/>
+      <c r="I36" s="37"/>
+      <c r="J36" s="37"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="50" t="s">
+      <c r="A37" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="B37" s="50"/>
-      <c r="C37" s="50"/>
-      <c r="D37" s="50"/>
+      <c r="B37" s="36"/>
+      <c r="C37" s="36"/>
+      <c r="D37" s="36"/>
       <c r="G37" s="4"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="I38" s="28" t="s">
+      <c r="I38" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="J38" s="28"/>
+      <c r="J38" s="21"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="H39" s="50" t="s">
+      <c r="H39" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="I39" s="50"/>
-      <c r="J39" s="50"/>
+      <c r="I39" s="36"/>
+      <c r="J39" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="75">
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="D20:G20"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="A25:J25"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="H39:J39"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="A32:J33"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="D19:G19"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="E21:H21"/>
+    <mergeCell ref="F23:J23"/>
+    <mergeCell ref="F24:J24"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A4:J5"/>
+    <mergeCell ref="A6:J6"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="H7:J7"/>
     <mergeCell ref="H9:J9"/>
     <mergeCell ref="B17:I17"/>
     <mergeCell ref="C9:E9"/>
@@ -1853,40 +1838,37 @@
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="F10:G10"/>
     <mergeCell ref="C10:E10"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A4:J5"/>
-    <mergeCell ref="A6:J6"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="H39:J39"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="A25:J25"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="D20:G20"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
     <mergeCell ref="D18:G18"/>
     <mergeCell ref="H18:J18"/>
     <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="E21:H21"/>
-    <mergeCell ref="F23:J23"/>
-    <mergeCell ref="F24:J24"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="D19:G19"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="A32:J33"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="A31:B31"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.5" right="0.45" top="0.5" bottom="0.5" header="0" footer="0"/>
